--- a/src/glovelist.xlsx
+++ b/src/glovelist.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/visheshsood/VisheshSood.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AFBDEF43-2656-074E-A6C4-CBF1402B7CA6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4FC27E61-5B9B-2540-B6AC-C96EE40C3E66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="25100" windowHeight="15540" xr2:uid="{60027984-BA81-7A40-A264-32BE95FE2324}"/>
   </bookViews>
   <sheets>
     <sheet name="Glove List" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Glove List'!$A$1:$I$224</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -517,10 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684D39CB-08C7-6A43-B8E8-6046B36D24F3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1199,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -1719,7 +1723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -1899,7 +1903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -1979,7 +1983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -2019,7 +2023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -2059,7 +2063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -2079,7 +2083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -2139,7 +2143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -2219,7 +2223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>30</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -2439,7 +2443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -2459,7 +2463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -2479,7 +2483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -2499,7 +2503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -2519,7 +2523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -2539,7 +2543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -2559,7 +2563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -2579,7 +2583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -2599,7 +2603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2639,7 +2643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -2739,7 +2743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -2759,7 +2763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2899,7 +2903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -2919,7 +2923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>30</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -3239,7 +3243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -3279,7 +3283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -3319,7 +3323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -3339,7 +3343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>30</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -3459,7 +3463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -3479,7 +3483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -3519,7 +3523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>30</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -3639,7 +3643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>35</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>35</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -3839,7 +3843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>35</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>35</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>35</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>35</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>35</v>
       </c>
@@ -3959,7 +3963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>35</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>35</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>35</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>35</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>35</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -4239,7 +4243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>35</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>39</v>
       </c>
@@ -4279,7 +4283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>39</v>
       </c>
@@ -4299,7 +4303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>39</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>39</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>40</v>
       </c>
@@ -4399,7 +4403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>40</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>40</v>
       </c>
@@ -4439,7 +4443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>40</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>41</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>41</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>41</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>41</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>41</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>41</v>
       </c>
@@ -4599,7 +4603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>41</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>41</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>41</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>41</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>41</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>41</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>41</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>41</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>41</v>
       </c>
@@ -4799,7 +4803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>41</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>43</v>
       </c>
@@ -4839,7 +4843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>43</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>43</v>
       </c>
@@ -4879,7 +4883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>43</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>43</v>
       </c>
@@ -4919,7 +4923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>43</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>43</v>
       </c>
@@ -4959,7 +4963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>43</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>43</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>43</v>
       </c>
@@ -5020,6 +5024,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I224" xr:uid="{5FCF90F3-FB15-D248-88E0-5E7494578B28}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Latex"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/glovelist.xlsx
+++ b/src/glovelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/visheshsood/VisheshSood.github.io/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4FC27E61-5B9B-2540-B6AC-C96EE40C3E66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DF6D63C-C5E7-5847-97F9-7A2F385D7770}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="25100" windowHeight="15540" xr2:uid="{60027984-BA81-7A40-A264-32BE95FE2324}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -156,9 +156,6 @@
     <t xml:space="preserve">NBR - Powdered Fully Textured </t>
   </si>
   <si>
-    <t>NItrile</t>
-  </si>
-  <si>
     <t>NBR - PFE Micro Diamond Textured Polymer Coated</t>
   </si>
   <si>
@@ -169,6 +166,45 @@
   </si>
   <si>
     <t>Certifications</t>
+  </si>
+  <si>
+    <t>naturallatex.jpg</t>
+  </si>
+  <si>
+    <t>orangemdt.jpg</t>
+  </si>
+  <si>
+    <t>bluemdt.jpg</t>
+  </si>
+  <si>
+    <t>darkbluemdt.jpg</t>
+  </si>
+  <si>
+    <t>blackmdt.jpg</t>
+  </si>
+  <si>
+    <t>lightbluefully.jpg</t>
+  </si>
+  <si>
+    <t>yellowdt.jpg</t>
+  </si>
+  <si>
+    <t>redgripper.jpg</t>
+  </si>
+  <si>
+    <t>reddt.jpg</t>
+  </si>
+  <si>
+    <t>militarygreendt.jpg</t>
+  </si>
+  <si>
+    <t>pgreendt.jpg</t>
+  </si>
+  <si>
+    <t>blackfinger.jpg</t>
+  </si>
+  <si>
+    <t>purplefinger.jpg</t>
   </si>
 </sst>
 </file>
@@ -523,8 +559,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,6 +568,8 @@
     <col min="1" max="1" width="71.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -554,16 +592,16 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -581,6 +619,9 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -603,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -622,8 +663,11 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -642,8 +686,11 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -662,8 +709,11 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -682,8 +732,11 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -702,8 +755,11 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -721,6 +777,9 @@
       </c>
       <c r="F9" t="s">
         <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1083,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1163,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1183,7 +1242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +1262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1222,8 +1281,11 @@
       <c r="F34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1242,8 +1304,11 @@
       <c r="F35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1262,8 +1327,11 @@
       <c r="F36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1282,8 +1350,11 @@
       <c r="F37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1302,8 +1373,11 @@
       <c r="F38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1322,8 +1396,11 @@
       <c r="F39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -1343,7 +1420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1363,7 +1440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1403,7 +1480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -1423,7 +1500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1463,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1503,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -1523,7 +1600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1543,7 +1620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -1563,7 +1640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1583,7 +1660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -1603,7 +1680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -1623,7 +1700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -1643,7 +1720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -1663,7 +1740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -1683,7 +1760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -1703,7 +1780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -1743,7 +1820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -1763,7 +1840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -1783,7 +1860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -1803,7 +1880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -1823,7 +1900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -1843,7 +1920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -1863,7 +1940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -1883,7 +1960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -1903,7 +1980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -1923,7 +2000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -1943,7 +2020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -1963,7 +2040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -1983,7 +2060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -2023,7 +2100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -2043,7 +2120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -2063,7 +2140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -2083,7 +2160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -2103,7 +2180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2123,7 +2200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -2143,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -2163,7 +2240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -2183,7 +2260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -2203,7 +2280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +2300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -2243,7 +2320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2263,7 +2340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -2283,7 +2360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2303,7 +2380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -2323,7 +2400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>30</v>
       </c>
@@ -2343,7 +2420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -2363,7 +2440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2383,7 +2460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -2403,7 +2480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -2423,7 +2500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -2443,7 +2520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -2463,7 +2540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -2483,7 +2560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -2503,7 +2580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -2523,7 +2600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -2543,7 +2620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -2563,7 +2640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -2583,7 +2660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +2680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -2623,7 +2700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2643,7 +2720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -2663,7 +2740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -2683,7 +2760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -2703,7 +2780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -2723,7 +2800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -2743,7 +2820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -2763,7 +2840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -2783,7 +2860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -2803,7 +2880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -2823,7 +2900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -2843,7 +2920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -2863,7 +2940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -2883,7 +2960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2903,7 +2980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -2923,7 +3000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -2943,7 +3020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -2963,7 +3040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -2983,7 +3060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3003,7 +3080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -3023,7 +3100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3043,7 +3120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -3063,7 +3140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>30</v>
       </c>
@@ -3083,7 +3160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -3103,7 +3180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -3123,7 +3200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -3143,7 +3220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3163,7 +3240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -3183,7 +3260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -3203,7 +3280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -3223,7 +3300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -3243,7 +3320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -3263,7 +3340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -3283,7 +3360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -3303,7 +3380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -3323,7 +3400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -3343,7 +3420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -3363,7 +3440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -3383,7 +3460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -3403,7 +3480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3423,7 +3500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>30</v>
       </c>
@@ -3443,7 +3520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -3463,7 +3540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -3483,7 +3560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -3503,7 +3580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -3523,7 +3600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3543,7 +3620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -3563,7 +3640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -3583,7 +3660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>30</v>
       </c>
@@ -3603,7 +3680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -3623,7 +3700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -3643,7 +3720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -3663,7 +3740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3683,7 +3760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -3703,7 +3780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -3723,7 +3800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -3743,7 +3820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -3763,7 +3840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -3783,7 +3860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>35</v>
       </c>
@@ -3803,7 +3880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>35</v>
       </c>
@@ -3823,7 +3900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -3843,7 +3920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>35</v>
       </c>
@@ -3863,7 +3940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -3883,7 +3960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>35</v>
       </c>
@@ -3903,7 +3980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>35</v>
       </c>
@@ -3923,7 +4000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>35</v>
       </c>
@@ -3943,7 +4020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>35</v>
       </c>
@@ -3963,7 +4040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>35</v>
       </c>
@@ -3983,7 +4060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -4003,7 +4080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -4023,7 +4100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>35</v>
       </c>
@@ -4042,8 +4119,11 @@
       <c r="F175" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G175" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>35</v>
       </c>
@@ -4062,8 +4142,11 @@
       <c r="F176" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G176" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>35</v>
       </c>
@@ -4082,8 +4165,11 @@
       <c r="F177" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G177" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -4102,8 +4188,11 @@
       <c r="F178" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G178" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -4122,8 +4211,11 @@
       <c r="F179" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G179" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -4142,8 +4234,11 @@
       <c r="F180" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G180" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -4162,8 +4257,11 @@
       <c r="F181" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G181" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -4182,8 +4280,11 @@
       <c r="F182" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G182" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -4202,8 +4303,11 @@
       <c r="F183" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G183" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>35</v>
       </c>
@@ -4223,7 +4327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -4243,7 +4347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>35</v>
       </c>
@@ -4263,7 +4367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>39</v>
       </c>
@@ -4282,8 +4386,11 @@
       <c r="F187" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G187" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>39</v>
       </c>
@@ -4302,8 +4409,11 @@
       <c r="F188" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G188" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -4323,7 +4433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -4343,7 +4453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>39</v>
       </c>
@@ -4363,7 +4473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>39</v>
       </c>
@@ -4383,7 +4493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>40</v>
       </c>
@@ -4403,7 +4513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>40</v>
       </c>
@@ -4423,7 +4533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>40</v>
       </c>
@@ -4442,8 +4552,11 @@
       <c r="F195" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G195" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>40</v>
       </c>
@@ -4462,8 +4575,11 @@
       <c r="F196" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>41</v>
       </c>
@@ -4483,7 +4599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>41</v>
       </c>
@@ -4503,7 +4619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -4523,7 +4639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>41</v>
       </c>
@@ -4543,7 +4659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>41</v>
       </c>
@@ -4563,7 +4679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>41</v>
       </c>
@@ -4583,7 +4699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>41</v>
       </c>
@@ -4603,7 +4719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>41</v>
       </c>
@@ -4623,7 +4739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>41</v>
       </c>
@@ -4643,7 +4759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -4663,7 +4779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>41</v>
       </c>
@@ -4683,7 +4799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>41</v>
       </c>
@@ -4703,7 +4819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>41</v>
       </c>
@@ -4722,8 +4838,11 @@
       <c r="F209" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G209" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>41</v>
       </c>
@@ -4742,8 +4861,11 @@
       <c r="F210" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G210" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>41</v>
       </c>
@@ -4762,8 +4884,11 @@
       <c r="F211" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G211" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>41</v>
       </c>
@@ -4782,8 +4907,11 @@
       <c r="F212" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G212" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>41</v>
       </c>
@@ -4802,8 +4930,11 @@
       <c r="F213" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G213" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>41</v>
       </c>
@@ -4822,10 +4953,13 @@
       <c r="F214" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G214" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B215" t="s">
         <v>21</v>
@@ -4842,10 +4976,13 @@
       <c r="F215" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G215" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B216" t="s">
         <v>21</v>
@@ -4862,13 +4999,16 @@
       <c r="F216" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G216" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B217" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C217">
         <v>8</v>
@@ -4882,10 +5022,13 @@
       <c r="F217" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G217" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B218" t="s">
         <v>21</v>
@@ -4902,10 +5045,13 @@
       <c r="F218" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G218" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B219" t="s">
         <v>21</v>
@@ -4922,13 +5068,16 @@
       <c r="F219" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G219" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B220" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C220">
         <v>8</v>
@@ -4942,10 +5091,13 @@
       <c r="F220" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G220" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B221" t="s">
         <v>21</v>
@@ -4962,10 +5114,13 @@
       <c r="F221" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G221" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B222" t="s">
         <v>21</v>
@@ -4982,13 +5137,16 @@
       <c r="F222" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G222" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B223" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C223">
         <v>8</v>
@@ -5002,13 +5160,16 @@
       <c r="F223" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G223" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B224" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C224">
         <v>9</v>
@@ -5022,13 +5183,14 @@
       <c r="F224" t="s">
         <v>32</v>
       </c>
+      <c r="G224" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I224" xr:uid="{5FCF90F3-FB15-D248-88E0-5E7494578B28}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Latex"/>
-      </filters>
+    <filterColumn colId="6">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
